--- a/task3_image/info_gain_result.xlsx
+++ b/task3_image/info_gain_result.xlsx
@@ -452,38 +452,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x2</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>本场game的得分领先进度</t>
+          <t>上一个point是否得分</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.08251260220409806</v>
+        <v>0.08452677526311647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x4</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上一个point是否得分</t>
+          <t>本场game的得分领先进度</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.08025524440076737</v>
+        <v>0.08009392105970936</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -501,79 +501,79 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.03910555555119699</v>
+        <v>0.03090427505630733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x11</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>本场set内对方发球时获得得分机会与实际获得得分的比例</t>
+          <t>上网次数与上网得分比例</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.02597998628682907</v>
+        <v>0.02980210541655559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x1</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>当前set中赢得的game数量</t>
+          <t>本场game是否发球得分（无触碰）</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.01983144588252461</v>
+        <v>0.01519379352706074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x10</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上网次数与上网得分比例</t>
+          <t>本场set内对方发球时获得得分机会与实际获得得分的比例</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01317929955827624</v>
+        <v>0.01018669295574703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x6</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>本场game是否发球得分（无触碰）</t>
+          <t>当前set中赢得的game数量</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.006741454875298203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x3</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x15</t>
+          <t>s15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x16</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
